--- a/UX heuristic eval schedule .xlsx
+++ b/UX heuristic eval schedule .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>- visibility of system status</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Hey this is a change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change 2.0 </t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C22"/>
+  <dimension ref="B4:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -555,6 +558,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
